--- a/results/T1_correlation_results.xlsx
+++ b/results/T1_correlation_results.xlsx
@@ -455,7 +455,7 @@
         <v>0.1264785325008402</v>
       </c>
       <c r="C2" t="n">
-        <v>3.040928706318201e-05</v>
+        <v>3.040928706318252e-05</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>-0.1512998145945756</v>
       </c>
       <c r="C3" t="n">
-        <v>5.736662175494626e-07</v>
+        <v>5.736662175494714e-07</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         <v>-0.1193909001467903</v>
       </c>
       <c r="C4" t="n">
-        <v>8.258709162388815e-05</v>
+        <v>8.258709162389016e-05</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         <v>-0.1046506266435551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005650770230304654</v>
+        <v>0.0005650770230304535</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         <v>-0.1805286186129043</v>
       </c>
       <c r="C6" t="n">
-        <v>2.223093692994332e-09</v>
+        <v>2.223093692994446e-09</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>-0.1099410559005723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002909990989838066</v>
+        <v>0.00029099909898379</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         <v>-0.1054965689499527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005091950260165358</v>
+        <v>0.0005091950260165386</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         <v>0.09161019704828507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002559086857076385</v>
+        <v>0.002559086857076323</v>
       </c>
     </row>
   </sheetData>
